--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Il10-Il10ra.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Il10-Il10ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,185 +522,495 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.88697214686003</v>
+        <v>36.26745966666667</v>
       </c>
       <c r="H2">
-        <v>2.88697214686003</v>
+        <v>108.802379</v>
       </c>
       <c r="I2">
-        <v>0.1507831711737737</v>
+        <v>0.643144256662053</v>
       </c>
       <c r="J2">
-        <v>0.1507831711737737</v>
+        <v>0.6431442566620529</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>47.7830798356042</v>
+        <v>17.50728866666667</v>
       </c>
       <c r="N2">
-        <v>47.7830798356042</v>
+        <v>52.521866</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.2429365863908956</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.2429365863908957</v>
       </c>
       <c r="Q2">
-        <v>137.9484205765785</v>
+        <v>634.9448855910239</v>
       </c>
       <c r="R2">
-        <v>137.9484205765785</v>
+        <v>5714.503970319214</v>
       </c>
       <c r="S2">
-        <v>0.1507831711737737</v>
+        <v>0.1562432702703892</v>
       </c>
       <c r="T2">
-        <v>0.1507831711737737</v>
+        <v>0.1562432702703892</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>15.345880889685</v>
+        <v>36.26745966666667</v>
       </c>
       <c r="H3">
-        <v>15.345880889685</v>
+        <v>108.802379</v>
       </c>
       <c r="I3">
-        <v>0.8014973707032105</v>
+        <v>0.643144256662053</v>
       </c>
       <c r="J3">
-        <v>0.8014973707032105</v>
+        <v>0.6431442566620529</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>47.7830798356042</v>
+        <v>54.557973</v>
       </c>
       <c r="N3">
-        <v>47.7830798356042</v>
+        <v>163.673919</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.7570634136091043</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.7570634136091045</v>
       </c>
       <c r="Q3">
-        <v>733.2734516994911</v>
+        <v>1978.679085272589</v>
       </c>
       <c r="R3">
-        <v>733.2734516994911</v>
+        <v>17808.1117674533</v>
       </c>
       <c r="S3">
-        <v>0.8014973707032105</v>
+        <v>0.4869009863916638</v>
       </c>
       <c r="T3">
-        <v>0.8014973707032105</v>
+        <v>0.4869009863916638</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>3.209141666666667</v>
+      </c>
+      <c r="H4">
+        <v>9.627425000000001</v>
+      </c>
+      <c r="I4">
+        <v>0.05690889438359308</v>
+      </c>
+      <c r="J4">
+        <v>0.05690889438359308</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>17.50728866666667</v>
+      </c>
+      <c r="N4">
+        <v>52.521866</v>
+      </c>
+      <c r="O4">
+        <v>0.2429365863908956</v>
+      </c>
+      <c r="P4">
+        <v>0.2429365863908957</v>
+      </c>
+      <c r="Q4">
+        <v>56.18336953056112</v>
+      </c>
+      <c r="R4">
+        <v>505.6503257750501</v>
+      </c>
+      <c r="S4">
+        <v>0.01382525253683012</v>
+      </c>
+      <c r="T4">
+        <v>0.01382525253683012</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3.209141666666667</v>
+      </c>
+      <c r="H5">
+        <v>9.627425000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.05690889438359308</v>
+      </c>
+      <c r="J5">
+        <v>0.05690889438359308</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>54.557973</v>
+      </c>
+      <c r="N5">
+        <v>163.673919</v>
+      </c>
+      <c r="O5">
+        <v>0.7570634136091043</v>
+      </c>
+      <c r="P5">
+        <v>0.7570634136091045</v>
+      </c>
+      <c r="Q5">
+        <v>175.084264403175</v>
+      </c>
+      <c r="R5">
+        <v>1575.758379628575</v>
+      </c>
+      <c r="S5">
+        <v>0.04308364184676296</v>
+      </c>
+      <c r="T5">
+        <v>0.04308364184676296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>15.98639866666667</v>
+      </c>
+      <c r="H6">
+        <v>47.95919600000001</v>
+      </c>
+      <c r="I6">
+        <v>0.2834927116945642</v>
+      </c>
+      <c r="J6">
+        <v>0.2834927116945642</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>17.50728866666667</v>
+      </c>
+      <c r="N6">
+        <v>52.521866</v>
+      </c>
+      <c r="O6">
+        <v>0.2429365863908956</v>
+      </c>
+      <c r="P6">
+        <v>0.2429365863908957</v>
+      </c>
+      <c r="Q6">
+        <v>279.8784961977485</v>
+      </c>
+      <c r="R6">
+        <v>2518.906465779736</v>
+      </c>
+      <c r="S6">
+        <v>0.06887075164577576</v>
+      </c>
+      <c r="T6">
+        <v>0.06887075164577577</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>15.98639866666667</v>
+      </c>
+      <c r="H7">
+        <v>47.95919600000001</v>
+      </c>
+      <c r="I7">
+        <v>0.2834927116945642</v>
+      </c>
+      <c r="J7">
+        <v>0.2834927116945642</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>54.557973</v>
+      </c>
+      <c r="N7">
+        <v>163.673919</v>
+      </c>
+      <c r="O7">
+        <v>0.7570634136091043</v>
+      </c>
+      <c r="P7">
+        <v>0.7570634136091045</v>
+      </c>
+      <c r="Q7">
+        <v>872.1855068232361</v>
+      </c>
+      <c r="R7">
+        <v>7849.669561409126</v>
+      </c>
+      <c r="S7">
+        <v>0.2146219600487884</v>
+      </c>
+      <c r="T7">
+        <v>0.2146219600487884</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.913661288537497</v>
-      </c>
-      <c r="H4">
-        <v>0.913661288537497</v>
-      </c>
-      <c r="I4">
-        <v>0.04771945812301576</v>
-      </c>
-      <c r="J4">
-        <v>0.04771945812301576</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>47.7830798356042</v>
-      </c>
-      <c r="N4">
-        <v>47.7830798356042</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>43.65755029288822</v>
-      </c>
-      <c r="R4">
-        <v>43.65755029288822</v>
-      </c>
-      <c r="S4">
-        <v>0.04771945812301576</v>
-      </c>
-      <c r="T4">
-        <v>0.04771945812301576</v>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.927863</v>
+      </c>
+      <c r="H8">
+        <v>2.783589</v>
+      </c>
+      <c r="I8">
+        <v>0.01645413725978976</v>
+      </c>
+      <c r="J8">
+        <v>0.01645413725978976</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>17.50728866666667</v>
+      </c>
+      <c r="N8">
+        <v>52.521866</v>
+      </c>
+      <c r="O8">
+        <v>0.2429365863908956</v>
+      </c>
+      <c r="P8">
+        <v>0.2429365863908957</v>
+      </c>
+      <c r="Q8">
+        <v>16.24436538411933</v>
+      </c>
+      <c r="R8">
+        <v>146.199288457074</v>
+      </c>
+      <c r="S8">
+        <v>0.00399731193790057</v>
+      </c>
+      <c r="T8">
+        <v>0.003997311937900571</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.927863</v>
+      </c>
+      <c r="H9">
+        <v>2.783589</v>
+      </c>
+      <c r="I9">
+        <v>0.01645413725978976</v>
+      </c>
+      <c r="J9">
+        <v>0.01645413725978976</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>54.557973</v>
+      </c>
+      <c r="N9">
+        <v>163.673919</v>
+      </c>
+      <c r="O9">
+        <v>0.7570634136091043</v>
+      </c>
+      <c r="P9">
+        <v>0.7570634136091045</v>
+      </c>
+      <c r="Q9">
+        <v>50.622324501699</v>
+      </c>
+      <c r="R9">
+        <v>455.600920515291</v>
+      </c>
+      <c r="S9">
+        <v>0.01245682532188919</v>
+      </c>
+      <c r="T9">
+        <v>0.01245682532188919</v>
       </c>
     </row>
   </sheetData>
